--- a/data/가덕도_새만금_한국공항공사_전체후기_GPT.xlsx
+++ b/data/가덕도_새만금_한국공항공사_전체후기_GPT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_1M\Documents\GitHub\ibco-review_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537D2406-6960-4B72-9B3A-516880F1D976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7836893F-421C-4C63-BB2A-529CF66F2162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2200,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M104" sqref="M104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2242,19 +2242,19 @@
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>360</v>
       </c>
     </row>

--- a/data/가덕도_새만금_한국공항공사_전체후기_GPT.xlsx
+++ b/data/가덕도_새만금_한국공항공사_전체후기_GPT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_1M\Documents\GitHub\ibco-review_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7836893F-421C-4C63-BB2A-529CF66F2162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50A3EE-39E4-457E-A3C3-F76870E971F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="708">
   <si>
     <t>한국공항공사</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1833,6 +1833,369 @@
   </si>
   <si>
     <t>기존지원자 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'합격': 1, '후': 1, '면접': 1, '바로': 1, '진행': 1, '서류': 1, '배수가': 1, '적어': 1}</t>
+  </si>
+  <si>
+    <t>{'별거': 1, '없는': 1, '단': 1, '단기': 1, '실제': 1, '정규직들은': 1, '어떤지': 1}</t>
+  </si>
+  <si>
+    <t>{'면접관': 1, '면접자': 1, '준비시간주고': 1, '발표시간': 1, '발표': 1, '끝나면': 1, '이것저것': 1, '들러리로': 1, '간': 1, '압박면접의': 1, '스트레스': 1, '해소를': 1, '왜': 1, '지원자한테': 1, '하는지': 1, '회사문화': 1, '굉장히': 1}</t>
+  </si>
+  <si>
+    <t>{'합격후': 1, 'pt면접이': 1, '면접은': 1, 'pt면접후': 1, '약': 1, '질의응답시간이': 1, '있었고': 1, '최종합격': 1, '발표는': 1, '정도': 1, '뒤에': 1}</t>
+  </si>
+  <si>
+    <t>{'채용에': 1, '응시하여': 1, '필기전형은': 1, '없었고': 1, '서류전형': 1, '후': 1, '면접전형으로': 1, '면접질문': 1}</t>
+  </si>
+  <si>
+    <t>{'필기': 1, '영어면접': 1}</t>
+  </si>
+  <si>
+    <t>{'지원이라서': 1, '서류': 1, '합격후': 1, '바로': 1, '면접': 1}</t>
+  </si>
+  <si>
+    <t>{'보고': 2, '필기를': 1, '면접을': 1, '참여인원은': 1, '결시자는': 1}</t>
+  </si>
+  <si>
+    <t>{'합격하고': 1, '준비': 1, '시간이': 1}</t>
+  </si>
+  <si>
+    <t>{'다수': 1, '필요': 1, '난이도': 1}</t>
+  </si>
+  <si>
+    <t>{'영어면접': 1, '원으로': 1, '돌며': 1, '직무': 1}</t>
+  </si>
+  <si>
+    <t>{'필기를': 1, '붙고': 1, '면접을': 1, '준비하며': 1, '느낀점은': 1, '이름있는': 1, '공기업이라': 1, '경쟁이': 1, '꽤나': 1}</t>
+  </si>
+  <si>
+    <t>{'먼저': 1, '진행하였으며': 2, '영어는': 1, '질문': 1, '난이도는': 1, '시간': 1, '동안': 1, '면접관은': 1, '개입하지': 1, '않고': 1, '지원자끼리': 1, '끝난': 1, '일정': 1, '거리를': 1, '두고': 1, '앉아있는': 1, '면접관에게': 1, '일일이': 1, '찾아가며': 1, '다대다가': 1, '섞인': 1, '주위에': 1, '다른': 2, '지원자들도': 1, '면접관과': 1, '면접을': 1, '진행중이기에간혹': 1, '면접관의': 1, '질문이': 1, '잘': 1, '안들리거나': 1, '답변을': 1, '크게': 1, '할': 1, '필요가': 1}</t>
+  </si>
+  <si>
+    <t>{'면접': 1, '진행중국어': 1, '전형이라': 1, '중국어필기와': 1, '중국어': 1, '면접도': 1}</t>
+  </si>
+  <si>
+    <t>{'토의면접진행': 1, '이후': 1, '인성직무면접': 1}</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>{'최종이라고': 1}</t>
+  </si>
+  <si>
+    <t>{'이루어지며': 1, '다대일': 1, '그': 1, '외': 1, '회화': 1, '면접': 1, '등이': 1, '임원': 1, '면접과': 1}</t>
+  </si>
+  <si>
+    <t>{'평이했습니다': 1, '다만': 1, '상황을': 1, '예로주고': 1, '대처방법을': 1, '묻는것이': 1}</t>
+  </si>
+  <si>
+    <t>{'필기가': 1, '빡쎄서인지': 1, '면접까지': 1, '올라온': 1, '사람이': 1, '별로': 1, '없었음': 1, '문과기준': 1, '확실히': 1, '여자들': 1, '통과비율이': 1, '높았으나': 1, '남성채용이': 1, '결과적으로는': 1, '더': 1, '많았을': 1, '것이로': 1, '한자리': 1, '수': 1, '채용에서': 1, '상당히': 1, '여자에게': 1}</t>
+  </si>
+  <si>
+    <t>{'합격하면': 1, '면접': 1}</t>
+  </si>
+  <si>
+    <t>{'본후': 1, '실무진': 1, '경영진': 1, '면접을': 1}</t>
+  </si>
+  <si>
+    <t>{'특성상': 1, 'ncs': 1, '직무시험': 1, '비중이': 1, '높다고': 1}</t>
+  </si>
+  <si>
+    <t>{'인턴': 1, '면접을': 1, '자소서': 1, '관련': 1, '인성질문을': 1, '공항': 1, '관련된': 1, '질문만': 1, '자소서엔': 1, '관심도': 1, '없는': 1, '영어': 1, '면접도': 1, '사무직은': 1, '오픽ih': 1, '수준만': 1, '되도': 1}</t>
+  </si>
+  <si>
+    <t>{'필기': 1, 'ncs': 1}</t>
+  </si>
+  <si>
+    <t>{'후에': 1, '직무관련토론면접있음': 1, '그': 1, '후': 1}</t>
+  </si>
+  <si>
+    <t>{'그렇게': 1, '어려운': 1, '편이': 1, '아니었고': 1, '프리젠테이션': 1, '면접도': 1, '모두가': 1, '할': 1, '수': 1, '있을만한': 1, '주제여서': 1, '면접의': 1, '기본': 1, '같은': 1, '느낌이라': 1, '많은': 1, '걸': 1}</t>
+  </si>
+  <si>
+    <t>{'위원장님': 1, '면접순서로': 1}</t>
+  </si>
+  <si>
+    <t>{'입사다대다': 1, '면접으로': 1, '진행됐고': 1, '답변에': 1, '대한': 1, '꼬리질문': 1}</t>
+  </si>
+  <si>
+    <t>{'필기': 1, '면접': 1, '순으로': 1, '동점자도': 1, '있었는지': 1, '배수보다': 1, '한명': 1, '더': 1}</t>
+  </si>
+  <si>
+    <t>{'개별확인으로': 1, '면접진행사옥이': 1, '시가지로부터': 1, '떨어져': 1, '면접장까지': 1, '셔틀버스운행종합면접이라': 1, '하였으나': 1, '단순': 1, '직무면접': 1}</t>
+  </si>
+  <si>
+    <t>{'합격': 3, '후': 2, '인성': 1, '검사': 1, '진행하고': 1, '면접': 1, '신상': 1, '정보': 1, '및': 1, '검진': 1, '통과': 1, '해야': 1, '최종': 2, '합격까지': 1, '다소': 1, '시간이': 1, '오래': 1}</t>
+  </si>
+  <si>
+    <t>{'자리를': 1, '옮겨가며': 1, '면접을': 1, '릴레이로': 1, '보는': 1, '외부': 1, '면접관': 1, '실무자': 1, '영어면접으로': 1, '구성되어': 1, '면접': 1, 'pt면접으로': 1, '시작': 1}</t>
+  </si>
+  <si>
+    <t>{'필기합격자': 1, '대상으로': 1}</t>
+  </si>
+  <si>
+    <t>{'번갈아': 1, '가며': 1, '생소한': 1, '방식이라': 1, '당황했으나': 1, '편하게': 1}</t>
+  </si>
+  <si>
+    <t>{'영어면접의': 1, '경우': 1, '오픽ih등급정도의': 1, '실력을': 1}</t>
+  </si>
+  <si>
+    <t>{'영어': 1, '실무진면접': 1, '임원면업인것': 1}</t>
+  </si>
+  <si>
+    <t>{'여쭤보셨어요': 1, '하려는직무': 1, '질문과': 1, '공항을': 1, '발젘시키기위한': 1, '요소': 1}</t>
+  </si>
+  <si>
+    <t>{'총': 1, '두번': 1, '토의': 1}</t>
+  </si>
+  <si>
+    <t>{'토론': 1, '면접이랑': 1, '개별': 1, '면접은': 1, '면접관들께서': 1, '친절하게': 1, '대해주셔서': 1, '분위기가': 1}</t>
+  </si>
+  <si>
+    <t>{'대한': 2, '직무에': 1, '이해도': 1, '숙지하는게': 1, '영어면접은': 1, '당연히': 1, '기본으로': 1, '보기': 1, '때문에': 1, '최소한': 1, '영어': 1, '대화를': 1, '너무': 1, '못해도': 1, '일상회화': 1, '가능한': 1, '만큼': 1}</t>
+  </si>
+  <si>
+    <t>{'면접영어면접': 1, '이후': 1, '면접pt면접다대다': 1}</t>
+  </si>
+  <si>
+    <t>{'공기업': 1, '개별': 1}</t>
+  </si>
+  <si>
+    <t>{'전에': 1, '발표해줌인성': 1, '직무': 1, '동시에': 1, '보고': 1, '네명의': 1, '면접관': 1, '마다': 1, '각': 1, '삼분씩': 1, '면접': 1}</t>
+  </si>
+  <si>
+    <t>{'딱딱하게': 1, '토론과': 1, '영어먼접': 1, '등이': 1, '바로': 1, '이어지는': 1}</t>
+  </si>
+  <si>
+    <t>{'다대다': 1, '등': 1, '여러': 1, '유형의': 1, '면접이': 1}</t>
+  </si>
+  <si>
+    <t>{'면접은': 1, '다대다': 1, '면접이었고': 1}</t>
+  </si>
+  <si>
+    <t>{'면접': 2}</t>
+  </si>
+  <si>
+    <t>{'건물': 1, '입구': 1, '쪽에서': 1, '발열체크하고': 1, '대기실': 1, '에서': 1, '기다렸는데': 1, '모든': 1, '전자기기': 1, '회수해갔고': 1, '시간되니까': 1, '대기실로': 2, '간단히': 1, '면접방법을': 1, '설명해주셨고': 1, '처음은': 1, '영어면접': 1, '번호순으로': 1, '들어갔고': 2, '기초적인': 1, '영어대화를': 1, '또다시': 1, '왔다가': 1, '토론면접': 2, '준비과제를': 1, '주셨고': 1, '준비시간을': 1, '준': 1, '뒤에': 1, '다대다': 1, '면접을': 2, '저희조는': 1, '임원한분': 1, '총': 1, '다섯명이': 1, '시간동안': 1, '끝나고': 1, '한분이': 1, '토론관련': 1, '질문을': 2, '한개': 1, '한후': 1, '면접자들이': 1, '돌아가면서': 1, '대답을': 1, '그다음은': 1, '다섯분과': 1, '각각': 2, '일대일': 1, '면접': 1, '이었는데': 1, '면접의': 1, '의도가': 1, '인성': 1, '등등': 1, '여러': 1}</t>
+  </si>
+  <si>
+    <t>{'영어면접은': 1, '까다롭지': 1, '않았고': 1, '토의면접은': 1, '전공에': 1, '대한': 1, '문제이다보니': 1, '조금은': 1, '개별면접은': 1, '자소서기반이랑': 1}</t>
+  </si>
+  <si>
+    <t>{'면접재직': 1, '당시엔': 1, '본부에서': 1, '직접': 1, '서류': 1, '접수': 1, '했는데': 1, '요즘엔': 1, '어찌': 1, '바뀌었는지': 1}</t>
+  </si>
+  <si>
+    <t>{'분위기는': 1, '대체적으로': 1, '면접': 1, '진행': 1, '순서는': 1, 'ai': 1, '면접으로': 1, '첫도입이어서': 1, '그런지': 1, '면접결과에': 1, '큰': 1, '영향은': 1, '없었겠지만': 1, '주위의': 1, '다른': 1, '면접자들': 1, '답변도': 1, '다': 1, '들려서': 1, '집중하기': 1, '쉽지': 1}</t>
+  </si>
+  <si>
+    <t>{'영어면접': 1, '역량면접으로': 1, '구성되었고': 1, '면접관과': 1, '면접을': 1, '진행': 1}</t>
+  </si>
+  <si>
+    <t>{'기준으로': 1, '과정으로': 1}</t>
+  </si>
+  <si>
+    <t>{'인성': 1, '등': 1, '다양한': 1, '면접': 1}</t>
+  </si>
+  <si>
+    <t>{'상반기': 1, '경력직': 1, '서류': 1}</t>
+  </si>
+  <si>
+    <t>{'토론면접': 1, '전공면접이': 1, '한번에': 1}</t>
+  </si>
+  <si>
+    <t>{'면접관특징은': 1, '압박면접을': 1, '이때': 1, '나는': 1, '면접관의': 1, '말에': 1, '반박하듯이': 1, '말을': 1, '했었던거': 1, '그리고': 1, '너무': 1, '솔직하게': 1, '말한것이': 1, '부작용으로': 1, '작용하여': 1, '탈락한': 1, '면접은': 1, '위원장을': 1, '제외하고는': 1, '무난한': 1, '질문을': 1}</t>
+  </si>
+  <si>
+    <t>{'놀이동산면접이': 1, '있습니다토론의경우': 1, '자신의': 1, '전공에': 1, '맞는': 1, '지원자를판단한다는': 1, '느낌보다는': 1, '교대근무가': 1, '가능한지가': 1, '주': 1, '초점이였던것': 1, '간단했고': 1, '전공도': 1}</t>
+  </si>
+  <si>
+    <t>{'뜨고': 1, '서류통과': 1, '후': 1, '정도': 1, '이후': 1, '면접': 1, '바로': 1}</t>
+  </si>
+  <si>
+    <t>{'필기시험': 1, '합격': 1, '후에': 1}</t>
+  </si>
+  <si>
+    <t>{'전에': 1, '서술형': 1, '블라인드': 1, '면접관이': 1, '있어서': 1, '한명씩': 1, '돌아가면서': 1, '면접을': 1}</t>
+  </si>
+  <si>
+    <t>{'웹': 1, '사이트를': 1, '통해서': 1, '결과를': 1, '확인할': 1, '수': 1}</t>
+  </si>
+  <si>
+    <t>{'토론후': 1, '다대다': 1, '임원면접으로': 1, '애국심관련': 1, '질문을': 1}</t>
+  </si>
+  <si>
+    <t>{'임원면접편안한': 1, '분위기에서': 1, '면접': 1}</t>
+  </si>
+  <si>
+    <t>{'홈페이지': 1, '및': 1, '이메일로': 1, '면접관에게': 1, '차례차례': 1, '일대일로': 1, '거치며': 1, '면접을': 1, '각자': 1, '지향하는': 1, '바가': 1, '다르셨고': 1, '그에': 1, '맞게': 1}</t>
+  </si>
+  <si>
+    <t>{'면접': 1, '끝나고나면': 1, '그자리에서': 1, '인성면접을': 1, '토론은': 1, '자료를': 1, '주고': 1, '찬반을': 1}</t>
+  </si>
+  <si>
+    <t>{'면접': 1, '임원': 1}</t>
+  </si>
+  <si>
+    <t>{'인적성': 1}</t>
+  </si>
+  <si>
+    <t>{'다대다': 1, '면접을실시하고': 1, '순발력': 1, '및': 1, '제치를': 1, '필요로하는': 1, '문제': 1}</t>
+  </si>
+  <si>
+    <t>{'서류': 1, '이후': 1, '면접이': 1, '한': 1, '번': 1}</t>
+  </si>
+  <si>
+    <t>{'필기시험': 1, '인적성시험': 1, '면접': 1}</t>
+  </si>
+  <si>
+    <t>{'다대다': 2, '전공지식': 1, '등에': 1, '대해': 1, '다양하게': 1, '역시': 1, '업계': 1, '관련': 1, '주제': 1, 'pt': 1, '후': 1, '인성': 1}</t>
+  </si>
+  <si>
+    <t>{'면접': 1, '중': 1, '통과': 1, '다섯': 1, '가지': 1, '주제로': 1, '각': 1, '테이블의': 1, '면접관에게': 1, '각각': 1, '방문하여': 1, '프리젠테이션': 1, '준비': 1, '후': 1, '면접관': 1, '앞에서': 1}</t>
+  </si>
+  <si>
+    <t>{'분위기는': 1, '부드럽고': 1}</t>
+  </si>
+  <si>
+    <t>{'서류에서': 1, '컷하고': 1}</t>
+  </si>
+  <si>
+    <t>{'통과': 1, '후': 1, '면접': 1, '형식으로': 1}</t>
+  </si>
+  <si>
+    <t>{'많이': 1, '경직되어있는': 1}</t>
+  </si>
+  <si>
+    <t>{'접수하여': 1, '배수를': 1, '군산에서': 1, '일괄적으로': 1, '전공과': 1, 'ncs는': 1, '타': 1, '공기업에': 1, '비해': 1, '모듈형으로': 1, '준비하시면': 1, '될': 1, '것': 1, '새만금개발공사': 1, '근처에서': 1, '분위기는': 1, '실무적으로': 1, '얼마만큼': 2, '준비가': 1, '잘되었는지': 1, '확인하는': 2, '다': 1, '면접관님은': 1, '총': 1, '뒤쪽에': 1, '한분은': 1, '인사부': 1, '직원': 1, '전체적인': 1, '느낌은': 1, '지원하는': 1, '분야에': 1, '대해': 2, '알고': 1, '있는가': 1, '직장': 1, '경력이': 1, '있으신': 1, '퇴직사유에': 1, '꼭': 1, '이전': 1, '직장에서': 1, '하던': 1, '업무를': 1, '구체적으로': 1}</t>
+  </si>
+  <si>
+    <t>{'면접은': 1, '두': 1, '가지': 1, '단계로': 1, '어떠한': 1, '주제에': 1, '대한': 1, '의견을': 1, '내는': 1, '토의': 1, '두번째는': 1, '각각': 1, '앉아있으면': 1, '면접보는': 1, '사람들이': 1, '면접관': 1, '한명씩': 1, '보는': 1, 'pt': 1, '면접': 1, '및': 1, '다대다': 1}</t>
+  </si>
+  <si>
+    <t>{'및': 1}</t>
+  </si>
+  <si>
+    <t>{'전공': 1, '면접을': 1, '하루동안': 1, 'pt': 1, '임원진': 1}</t>
+  </si>
+  <si>
+    <t>{'영어면접': 1, '후': 1, '면접관': 1, '앞에서': 1, '그룹': 1, '토의면접과': 1, '주제': 1, '관련': 1, '공통질문': 1, '이후': 1, '다대다': 1, '면접': 1}</t>
+  </si>
+  <si>
+    <t>{'인성관련': 1, '면접': 1, '순으로': 1, '이루어졌었다': 1, '무난한': 1, '진행에': 1, '시세히': 1}</t>
+  </si>
+  <si>
+    <t>{'토론': 1, '면접관은': 1, '각': 1, '분야별': 1, '정도': 3, '면접자는': 2, '한번에': 1, '한': 2, '곳에': 1, '하나의': 1, '주제를': 1, '두고': 2, '찬반을': 1, '나눈': 1, '뒤': 2, '자유롭게': 1, '토론하고': 1, '그것을': 1, '면접관님들은': 1, '지켜본': 1, '일정': 1, '시간이': 1, '지나면': 1, '면접관님들이': 1, '준비한': 1, '질문들을': 1, '질문내용은': 1, '토론과정에서': 1, '주장했던': 1, '얘기': 1, '관련일': 1, '수도': 3, '있고': 2, '자기소개서': 1, '관련': 1, '얘기일': 1, '전공관련': 1, '질문일': 1, '그렇게': 1, '총': 1, '진행하고': 1, '교포': 1, '분을': 1, '초빙하여': 1, '면접관으로': 1, '명씩': 1, '들어가서': 1, '영어로': 1, '대화를': 1, '주제는': 1, '상대적으로': 1, '자유로워': 1, '편안한': 1, '분위기에서': 1, '임원진': 1, '면접으로': 1, '공사': 1, '임원들': 1, '중': 1, '들어가시고': 1, '한방에': 1, '모여서': 1, '가치관': 1, '등의': 1, '인성': 1, '질문을': 1, '주고': 1, '진행': 1, '후': 1}</t>
+  </si>
+  <si>
+    <t>{'합격하고': 1, '일주일만에': 1, '면접일정이': 1, '서울본사에서': 1, '진행됬고': 1, '분위기는': 1, '명이었고': 1, '분위기도': 1}</t>
+  </si>
+  <si>
+    <t>{'나누어져': 1, '인성면접': 1, '임원진면접으로': 1, '구성되어': 1}</t>
+  </si>
+  <si>
+    <t>{'면접으로': 1, '구성된': 1, '채용': 1, '프로세스를': 1, '가지고': 1}</t>
+  </si>
+  <si>
+    <t>{'진행': 1, '자소서에': 2, '있는것도': 1, '물어보고': 1, '없는것도': 1, '면접은': 2, '다대다로': 1, '토론면접과': 1, '전공에': 1, '대한': 1, '질문을': 1, '하는데': 1, '난이도는': 1, '평범한': 1, '수준': 1, '관련된': 1, '전공지식이': 1, 'pt랑': 1, '함께': 1}</t>
+  </si>
+  <si>
+    <t>{'전공': 1, 'ncs': 1, '순으로': 1, '영어면접과': 1, '토론면접이': 1, '진행되었고': 1, '영어면접에서는': 1, '난이도있는': 1, '질문에': 1, '일상대화가': 1, '찬반을나누어': 1, '사회자': 1, '없이': 1, '진행하며면접관들은': 1, '지켜보고': 1, '끝난후': 1, '질문과': 1, '함께': 1, '전공질문을': 1, '임원면접으로': 1, '들어가고': 1, '안되서': 1, '끝났고': 1, '인성질문과': 1, '일반기업처럼': 1, '일상적인것을': 1, '어떻게': 1, '평가하는지': 1, '모르겠지만': 1}</t>
+  </si>
+  <si>
+    <t>{'면접과정이': 1, '영어면접을': 1, '시작으로': 1, '지원자들과': 1, '토론면접': 1, '그리고': 1, '과제를': 1, '던져주고': 1, '지원자들끼리': 1, '자유롭게': 1, '의견을': 1, '나누는': 1, '특징은': 1, '단체면접을': 1, '진행할': 1, '면접관들이': 1, '다': 1, '보고있다는': 1, '끝나면': 1, '바로': 2, '자소서기반': 1, '및': 1, '직무관련': 1, '면접이': 1, '되었던': 1, '것': 1}</t>
+  </si>
+  <si>
+    <t>{'도착해서': 1, '대기하다가': 1, '인원이': 1, '모두': 2, '모이면': 1, '한명씩': 1, '영어면접부터': 1, '약': 1, '자기소개서를': 1, '기반으로': 1, '질문을': 3, '비교대상이': 1, '없기때문에': 1, '자신감이': 1, '조금': 1, '소수직렬이었기때문에다함께': 1, '면접장으로': 1, '면접과는': 1, '다르게': 1, '토론면접을': 1, '주제는': 1, '전공관련으로': 1, '상황판단능력을': 1, '보려고': 1, '하는거': 1, '펜을': 1, '나워줘서': 1, '자유롭게': 1, '의견피력면접장에': 1, '들어가': 1, '각각': 1, '의견을': 1, '피력': 1, '자유토론': 1, '끝난': 1, '후': 2, '그': 1, '자리에서': 1, '바로': 1, '인성면접': 1, '위원장님': 1, '포함': 1, '계셨고': 1, '돌아가면서': 1, '정도': 1, '진행되는거': 1, '질문은': 1, '무난한': 1, '평범한': 1, '한분이': 1, '전공지식관련한': 1, '면접이니까': 1, '많이했지만': 1, '그렇게': 1, '딱딱한': 1, '분위기는': 1, '영어면접관님도': 1, '내가': 1, '얘기한거를': 1, '잘': 1, '포장해서': 1, '다시한번': 1, '확인시켜주셔서': 1, '좋고': 1, '대기실': 1, '뒤쪽에': 1, '비치된': 1, '물과': 1, '과자를': 1, '가져가게': 1}</t>
+  </si>
+  <si>
+    <t>{'필기': 1, '인적성': 1, '서류': 1, '발표': 1, '결과는': 2, '좀': 1, '오래': 1, '걸리지만': 1, '나머지': 1, '면접': 1, '사이에': 1, '인적성은': 1, '행동과학연구소': 1, '유형이었고': 1, '비교적': 1, '어려운': 1, '면접은': 2, '테이블에': 1, '면접관이': 1, '한명씩': 1, '앉아있고': 1, '지원자가': 1, '한테이블씩': 1, '찾아가는': 1, '형식의': 1, '종합': 1, '면접의': 1, '유형이': 1, '면접이고': 1, '피티': 1, '면접과': 1, '대부분의': 1, '질문이': 1, '인터넷': 1, '기출에': 1, '나온': 1, '유형이랑': 1}</t>
+  </si>
+  <si>
+    <t>{'진행되었으며': 2, '총': 1, '면접관을': 1, '번갈아가며': 1, '종합': 1, '면접을': 1, '일대일로': 1, '보게': 1, '면접': 1, '시간은': 1, '면접관': 1, '당': 1, '이내로': 1, '진행되었으나': 1, '지원자마다': 1, '조금': 3, '기다리는': 1, '시간을': 1, '포함해서': 1, '넘었던': 1, '것': 2, '면접은': 2, '면접과': 1, '다른': 1, '장소에서': 1, '김포공항은': 1, '자주': 1, '이용하는': 1, '편이': 1, '아니어서': 1, '처음에': 1, '길이': 1, '생소할': 1, '수': 1, '있으니': 1, '일찍': 1, '가는': 1, '것을': 1, '다대다로': 1, '면접보다는': 1, '점수로': 1, '합격하는': 1, '같다는': 1, '인상을': 1}</t>
+  </si>
+  <si>
+    <t>{'자유로운': 1, '분위기에서': 1, '진행하였습니다': 1, '피티나': 1, '토론': 1, '면접은': 1, '없고': 1, '인성과': 1, '자소서기반': 1, '중심으로': 1}</t>
+  </si>
+  <si>
+    <t>Topic Category</t>
+  </si>
+  <si>
+    <t>Topic Description</t>
+  </si>
+  <si>
+    <t>Topic 1</t>
+  </si>
+  <si>
+    <t>다양한 면접 방식, 부정적 요소</t>
+  </si>
+  <si>
+    <t>Topic 3</t>
+  </si>
+  <si>
+    <t>체계적인 평가, 다양한 질문</t>
+  </si>
+  <si>
+    <t>Topic 8</t>
+  </si>
+  <si>
+    <t>경력 위주의 채용, 명확한 채용 절차</t>
+  </si>
+  <si>
+    <t>Topic 6</t>
+  </si>
+  <si>
+    <t>일반적인 면접 진행, 상세한 설명</t>
+  </si>
+  <si>
+    <t>Topic 0</t>
+  </si>
+  <si>
+    <t>경력직 중시, 부드러운 면접 스타일</t>
+  </si>
+  <si>
+    <t>Topic 9</t>
+  </si>
+  <si>
+    <t>상세한 면접 과정 설명, 만족도 높은 면접 경험</t>
+  </si>
+  <si>
+    <t>Topic 7</t>
+  </si>
+  <si>
+    <t>긍정적 평가, 구체적인 면접 프로세스</t>
+  </si>
+  <si>
+    <t>Topic 5</t>
+  </si>
+  <si>
+    <t>면접 분위기, 만족도가 높음</t>
+  </si>
+  <si>
+    <t>Topic 4</t>
+  </si>
+  <si>
+    <t>전반적인 만족도, 채용 과정의 전반적인 평가</t>
+  </si>
+  <si>
+    <t>Topic 2</t>
+  </si>
+  <si>
+    <t>영어 능력 강조, 준비 필요성</t>
+  </si>
+  <si>
+    <t>경력 위주의 채용, 명확한 채용 절차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1840,7 +2203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1862,6 +2225,14 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1871,7 +2242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1903,19 +2274,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2198,10 +2587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M104" sqref="M104"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2211,7 +2600,7 @@
     <col min="13" max="13" width="96.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2236,12 +2625,12 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
       <c r="M1" s="1" t="s">
         <v>583</v>
       </c>
@@ -2257,8 +2646,17 @@
       <c r="Q1" s="1" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2295,8 +2693,17 @@
       <c r="Q2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>589</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2336,8 +2743,17 @@
       <c r="Q3" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" t="s">
+        <v>590</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>358</v>
       </c>
@@ -2362,8 +2778,17 @@
       <c r="Q4" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>591</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2403,8 +2828,17 @@
       <c r="Q5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" t="s">
+        <v>592</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T5" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2444,8 +2878,17 @@
       <c r="Q6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" t="s">
+        <v>593</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2485,8 +2928,17 @@
       <c r="Q7" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" t="s">
+        <v>594</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2523,8 +2975,17 @@
       <c r="Q8" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" t="s">
+        <v>595</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -2564,8 +3025,17 @@
       <c r="Q9" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" t="s">
+        <v>596</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2605,8 +3075,17 @@
       <c r="Q10" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" t="s">
+        <v>597</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2640,8 +3119,17 @@
       <c r="Q11" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" t="s">
+        <v>598</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -2675,8 +3163,17 @@
       <c r="Q12" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" t="s">
+        <v>599</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -2716,8 +3213,17 @@
       <c r="Q13" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" t="s">
+        <v>600</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2757,8 +3263,17 @@
       <c r="Q14" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" t="s">
+        <v>601</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -2792,8 +3307,17 @@
       <c r="Q15" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" t="s">
+        <v>602</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T15" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -2833,8 +3357,17 @@
       <c r="Q16" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" t="s">
+        <v>603</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -2874,8 +3407,17 @@
       <c r="Q17" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" t="s">
+        <v>604</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -2912,8 +3454,17 @@
       <c r="Q18" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" t="s">
+        <v>605</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T18" s="5" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -2953,8 +3504,17 @@
       <c r="Q19" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" t="s">
+        <v>606</v>
+      </c>
+      <c r="S19" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T19" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2994,8 +3554,17 @@
       <c r="Q20" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" t="s">
+        <v>607</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T20" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3029,8 +3598,17 @@
       <c r="Q21" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" t="s">
+        <v>608</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3064,8 +3642,17 @@
       <c r="Q22" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" t="s">
+        <v>609</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3096,8 +3683,17 @@
       <c r="Q23" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" t="s">
+        <v>610</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T23" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3131,8 +3727,17 @@
       <c r="Q24" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" t="s">
+        <v>611</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3172,8 +3777,17 @@
       <c r="Q25" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" t="s">
+        <v>612</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3208,13 +3822,22 @@
         <v>584</v>
       </c>
       <c r="P26" t="s">
-        <v>362</v>
+        <v>707</v>
       </c>
       <c r="Q26" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" t="s">
+        <v>613</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3245,8 +3868,17 @@
       <c r="Q27" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" t="s">
+        <v>614</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="T27" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3286,8 +3918,17 @@
       <c r="Q28" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" t="s">
+        <v>615</v>
+      </c>
+      <c r="S28" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T28" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -3318,8 +3959,17 @@
       <c r="Q29" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" t="s">
+        <v>616</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T29" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>358</v>
       </c>
@@ -3359,8 +4009,17 @@
       <c r="Q30" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" t="s">
+        <v>617</v>
+      </c>
+      <c r="S30" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T30" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>358</v>
       </c>
@@ -3388,8 +4047,17 @@
       <c r="Q31" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" t="s">
+        <v>618</v>
+      </c>
+      <c r="S31" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T31" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>358</v>
       </c>
@@ -3411,8 +4079,17 @@
       <c r="Q32" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" t="s">
+        <v>619</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -3449,8 +4126,17 @@
       <c r="Q33" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" t="s">
+        <v>620</v>
+      </c>
+      <c r="S33" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="T33" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -3490,8 +4176,17 @@
       <c r="Q34" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" t="s">
+        <v>621</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T34" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -3531,8 +4226,17 @@
       <c r="Q35" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" t="s">
+        <v>622</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="T35" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -3566,8 +4270,17 @@
       <c r="Q36" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" t="s">
+        <v>623</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -3607,8 +4320,17 @@
       <c r="Q37" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" t="s">
+        <v>624</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -3648,8 +4370,17 @@
       <c r="Q38" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" t="s">
+        <v>625</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -3686,8 +4417,17 @@
       <c r="Q39" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" t="s">
+        <v>604</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -3727,8 +4467,17 @@
       <c r="Q40" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" t="s">
+        <v>604</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3768,8 +4517,17 @@
       <c r="Q41" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" t="s">
+        <v>626</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -3809,8 +4567,17 @@
       <c r="Q42" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" t="s">
+        <v>627</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -3850,8 +4617,17 @@
       <c r="Q43" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43" t="s">
+        <v>628</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3888,8 +4664,17 @@
       <c r="Q44" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44" t="s">
+        <v>629</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -3929,8 +4714,17 @@
       <c r="Q45" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45" t="s">
+        <v>630</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -3970,8 +4764,17 @@
       <c r="Q46" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46" t="s">
+        <v>631</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -4011,8 +4814,17 @@
       <c r="Q47" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47" t="s">
+        <v>632</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4052,8 +4864,17 @@
       <c r="Q48" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48" t="s">
+        <v>633</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4093,8 +4914,17 @@
       <c r="Q49" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49" t="s">
+        <v>634</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4131,8 +4961,17 @@
       <c r="Q50" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50" t="s">
+        <v>635</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -4169,8 +5008,17 @@
       <c r="Q51" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51" t="s">
+        <v>636</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -4210,8 +5058,17 @@
       <c r="Q52" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52" t="s">
+        <v>637</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -4248,8 +5105,17 @@
       <c r="Q53" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53" t="s">
+        <v>638</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -4286,8 +5152,17 @@
       <c r="Q54" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54" t="s">
+        <v>639</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -4324,8 +5199,17 @@
       <c r="Q55" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55" t="s">
+        <v>640</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -4362,8 +5246,17 @@
       <c r="Q56" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56" t="s">
+        <v>641</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -4400,8 +5293,17 @@
       <c r="Q57" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57" t="s">
+        <v>642</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -4438,8 +5340,17 @@
       <c r="Q58" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R58" t="s">
+        <v>643</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -4479,8 +5390,17 @@
       <c r="Q59" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R59" t="s">
+        <v>644</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T59" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -4520,8 +5440,17 @@
       <c r="Q60" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60" t="s">
+        <v>645</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T60" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -4558,8 +5487,17 @@
       <c r="Q61" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61" t="s">
+        <v>646</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -4596,8 +5534,17 @@
       <c r="Q62" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62" t="s">
+        <v>647</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -4637,8 +5584,17 @@
       <c r="Q63" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63" t="s">
+        <v>648</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T63" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -4678,8 +5634,17 @@
       <c r="Q64" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64" t="s">
+        <v>649</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T64" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -4719,8 +5684,17 @@
       <c r="Q65" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65" t="s">
+        <v>650</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T65" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -4754,8 +5728,17 @@
       <c r="Q66" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66" t="s">
+        <v>651</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -4795,8 +5778,17 @@
       <c r="Q67" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67" t="s">
+        <v>652</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -4833,8 +5825,17 @@
       <c r="Q68" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68" t="s">
+        <v>653</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -4874,8 +5875,17 @@
       <c r="Q69" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69" t="s">
+        <v>654</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -4912,8 +5922,17 @@
       <c r="Q70" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70" t="s">
+        <v>655</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -4953,8 +5972,17 @@
       <c r="Q71" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71" t="s">
+        <v>656</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T71" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -4994,8 +6022,17 @@
       <c r="Q72" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72" t="s">
+        <v>657</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -5035,8 +6072,17 @@
       <c r="Q73" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R73" t="s">
+        <v>658</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T73" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -5073,8 +6119,17 @@
       <c r="Q74" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R74" t="s">
+        <v>659</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T74" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -5108,8 +6163,17 @@
       <c r="Q75" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75" t="s">
+        <v>660</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -5146,8 +6210,17 @@
       <c r="Q76" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76" t="s">
+        <v>661</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T76" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -5178,8 +6251,17 @@
       <c r="Q77" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77" t="s">
+        <v>662</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -5216,8 +6298,17 @@
       <c r="Q78" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R78" t="s">
+        <v>663</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>358</v>
       </c>
@@ -5254,8 +6345,17 @@
       <c r="Q79" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R79" t="s">
+        <v>664</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>358</v>
       </c>
@@ -5295,8 +6395,17 @@
       <c r="Q80" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R80" t="s">
+        <v>665</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T80" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>358</v>
       </c>
@@ -5336,8 +6445,17 @@
       <c r="Q81" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R81" t="s">
+        <v>666</v>
+      </c>
+      <c r="S81" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T81" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>358</v>
       </c>
@@ -5377,8 +6495,17 @@
       <c r="Q82" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R82" t="s">
+        <v>667</v>
+      </c>
+      <c r="S82" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T82" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -5418,8 +6545,17 @@
       <c r="Q83" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R83" t="s">
+        <v>668</v>
+      </c>
+      <c r="S83" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="T83" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -5459,8 +6595,17 @@
       <c r="Q84" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R84" t="s">
+        <v>669</v>
+      </c>
+      <c r="S84" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="T84" s="5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -5500,8 +6645,17 @@
       <c r="Q85" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R85" t="s">
+        <v>604</v>
+      </c>
+      <c r="S85" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="T85" s="5" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -5541,8 +6695,17 @@
       <c r="Q86" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R86" t="s">
+        <v>670</v>
+      </c>
+      <c r="S86" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T86" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -5582,8 +6745,17 @@
       <c r="Q87" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R87" t="s">
+        <v>671</v>
+      </c>
+      <c r="S87" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T87" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -5623,8 +6795,17 @@
       <c r="Q88" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R88" t="s">
+        <v>672</v>
+      </c>
+      <c r="S88" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="T88" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -5661,8 +6842,17 @@
       <c r="Q89" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R89" t="s">
+        <v>604</v>
+      </c>
+      <c r="S89" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T89" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -5696,8 +6886,17 @@
       <c r="Q90" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R90" t="s">
+        <v>673</v>
+      </c>
+      <c r="S90" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T90" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -5737,8 +6936,17 @@
       <c r="Q91" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R91" t="s">
+        <v>674</v>
+      </c>
+      <c r="S91" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="T91" s="5" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -5772,8 +6980,17 @@
       <c r="Q92" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R92" t="s">
+        <v>675</v>
+      </c>
+      <c r="S92" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="T92" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -5813,8 +7030,17 @@
       <c r="Q93" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R93" t="s">
+        <v>676</v>
+      </c>
+      <c r="S93" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T93" s="5" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -5854,8 +7080,17 @@
       <c r="Q94" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R94" t="s">
+        <v>677</v>
+      </c>
+      <c r="S94" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="T94" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -5895,8 +7130,17 @@
       <c r="Q95" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R95" t="s">
+        <v>678</v>
+      </c>
+      <c r="S95" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="T95" s="5" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -5936,8 +7180,17 @@
       <c r="Q96" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R96" t="s">
+        <v>679</v>
+      </c>
+      <c r="S96" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T96" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -5974,8 +7227,17 @@
       <c r="Q97" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R97" t="s">
+        <v>680</v>
+      </c>
+      <c r="S97" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="T97" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -6012,8 +7274,17 @@
       <c r="Q98" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R98" t="s">
+        <v>681</v>
+      </c>
+      <c r="S98" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T98" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -6050,8 +7321,17 @@
       <c r="Q99" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R99" t="s">
+        <v>682</v>
+      </c>
+      <c r="S99" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="T99" s="5" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>358</v>
       </c>
@@ -6087,6 +7367,15 @@
       </c>
       <c r="Q100" t="s">
         <v>362</v>
+      </c>
+      <c r="R100" t="s">
+        <v>683</v>
+      </c>
+      <c r="S100" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="T100" s="5" t="s">
+        <v>705</v>
       </c>
     </row>
   </sheetData>

--- a/data/가덕도_새만금_한국공항공사_전체후기_GPT.xlsx
+++ b/data/가덕도_새만금_한국공항공사_전체후기_GPT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_1M\Documents\GitHub\ibco-review_analysis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\ibco-review_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E50A3EE-39E4-457E-A3C3-F76870E971F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB0437D-D8CF-4CC6-89D8-977805A81CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2289,7 +2289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2297,14 +2297,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2589,18 +2588,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.5" customWidth="1"/>
-    <col min="13" max="13" width="96.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="96.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,12 +2624,12 @@
       <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>582</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
       <c r="M1" s="1" t="s">
         <v>583</v>
       </c>
@@ -2649,14 +2648,14 @@
       <c r="R1" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2696,14 +2695,14 @@
       <c r="R2" t="s">
         <v>589</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" t="s">
         <v>686</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2746,14 +2745,14 @@
       <c r="R3" t="s">
         <v>590</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" t="s">
         <v>688</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>358</v>
       </c>
@@ -2781,14 +2780,14 @@
       <c r="R4" t="s">
         <v>591</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" t="s">
         <v>688</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2831,14 +2830,14 @@
       <c r="R5" t="s">
         <v>592</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" t="s">
         <v>690</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2881,14 +2880,14 @@
       <c r="R6" t="s">
         <v>593</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" t="s">
         <v>690</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2931,14 +2930,14 @@
       <c r="R7" t="s">
         <v>594</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" t="s">
         <v>692</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -2978,14 +2977,14 @@
       <c r="R8" t="s">
         <v>595</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" t="s">
         <v>694</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -3028,14 +3027,14 @@
       <c r="R9" t="s">
         <v>596</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" t="s">
         <v>696</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -3078,14 +3077,14 @@
       <c r="R10" t="s">
         <v>597</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" t="s">
         <v>698</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -3122,14 +3121,14 @@
       <c r="R11" t="s">
         <v>598</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" t="s">
         <v>700</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -3166,14 +3165,14 @@
       <c r="R12" t="s">
         <v>599</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" t="s">
         <v>702</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -3216,14 +3215,14 @@
       <c r="R13" t="s">
         <v>600</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" t="s">
         <v>688</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -3266,14 +3265,14 @@
       <c r="R14" t="s">
         <v>601</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" t="s">
         <v>688</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -3310,14 +3309,14 @@
       <c r="R15" t="s">
         <v>602</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" t="s">
         <v>700</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -3360,14 +3359,14 @@
       <c r="R16" t="s">
         <v>603</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" t="s">
         <v>690</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -3410,14 +3409,14 @@
       <c r="R17" t="s">
         <v>604</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" t="s">
         <v>704</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -3457,14 +3456,14 @@
       <c r="R18" t="s">
         <v>605</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" t="s">
         <v>690</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -3507,14 +3506,14 @@
       <c r="R19" t="s">
         <v>606</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" t="s">
         <v>702</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -3557,14 +3556,14 @@
       <c r="R20" t="s">
         <v>607</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" t="s">
         <v>696</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -3601,14 +3600,14 @@
       <c r="R21" t="s">
         <v>608</v>
       </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" t="s">
         <v>696</v>
       </c>
-      <c r="T21" s="5" t="s">
+      <c r="T21" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -3645,14 +3644,14 @@
       <c r="R22" t="s">
         <v>609</v>
       </c>
-      <c r="S22" s="5" t="s">
+      <c r="S22" t="s">
         <v>698</v>
       </c>
-      <c r="T22" s="5" t="s">
+      <c r="T22" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -3686,14 +3685,14 @@
       <c r="R23" t="s">
         <v>610</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" t="s">
         <v>690</v>
       </c>
-      <c r="T23" s="5" t="s">
+      <c r="T23" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -3730,14 +3729,14 @@
       <c r="R24" t="s">
         <v>611</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" t="s">
         <v>702</v>
       </c>
-      <c r="T24" s="5" t="s">
+      <c r="T24" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -3780,14 +3779,14 @@
       <c r="R25" t="s">
         <v>612</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="S25" t="s">
         <v>700</v>
       </c>
-      <c r="T25" s="5" t="s">
+      <c r="T25" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -3830,14 +3829,14 @@
       <c r="R26" t="s">
         <v>613</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="S26" t="s">
         <v>696</v>
       </c>
-      <c r="T26" s="5" t="s">
+      <c r="T26" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -3871,14 +3870,14 @@
       <c r="R27" t="s">
         <v>614</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" t="s">
         <v>686</v>
       </c>
-      <c r="T27" s="5" t="s">
+      <c r="T27" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -3921,14 +3920,14 @@
       <c r="R28" t="s">
         <v>615</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="S28" t="s">
         <v>702</v>
       </c>
-      <c r="T28" s="5" t="s">
+      <c r="T28" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -3962,14 +3961,14 @@
       <c r="R29" t="s">
         <v>616</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" t="s">
         <v>696</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>358</v>
       </c>
@@ -4012,14 +4011,14 @@
       <c r="R30" t="s">
         <v>617</v>
       </c>
-      <c r="S30" s="5" t="s">
+      <c r="S30" t="s">
         <v>704</v>
       </c>
-      <c r="T30" s="5" t="s">
+      <c r="T30" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>358</v>
       </c>
@@ -4050,14 +4049,14 @@
       <c r="R31" t="s">
         <v>618</v>
       </c>
-      <c r="S31" s="5" t="s">
+      <c r="S31" t="s">
         <v>702</v>
       </c>
-      <c r="T31" s="5" t="s">
+      <c r="T31" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>358</v>
       </c>
@@ -4082,14 +4081,14 @@
       <c r="R32" t="s">
         <v>619</v>
       </c>
-      <c r="S32" s="5" t="s">
+      <c r="S32" t="s">
         <v>704</v>
       </c>
-      <c r="T32" s="5" t="s">
+      <c r="T32" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -4129,14 +4128,14 @@
       <c r="R33" t="s">
         <v>620</v>
       </c>
-      <c r="S33" s="5" t="s">
+      <c r="S33" t="s">
         <v>698</v>
       </c>
-      <c r="T33" s="5" t="s">
+      <c r="T33" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -4179,14 +4178,14 @@
       <c r="R34" t="s">
         <v>621</v>
       </c>
-      <c r="S34" s="5" t="s">
+      <c r="S34" t="s">
         <v>704</v>
       </c>
-      <c r="T34" s="5" t="s">
+      <c r="T34" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -4229,14 +4228,14 @@
       <c r="R35" t="s">
         <v>622</v>
       </c>
-      <c r="S35" s="5" t="s">
+      <c r="S35" t="s">
         <v>694</v>
       </c>
-      <c r="T35" s="5" t="s">
+      <c r="T35" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>0</v>
       </c>
@@ -4273,14 +4272,14 @@
       <c r="R36" t="s">
         <v>623</v>
       </c>
-      <c r="S36" s="5" t="s">
+      <c r="S36" t="s">
         <v>704</v>
       </c>
-      <c r="T36" s="5" t="s">
+      <c r="T36" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>0</v>
       </c>
@@ -4323,14 +4322,14 @@
       <c r="R37" t="s">
         <v>624</v>
       </c>
-      <c r="S37" s="5" t="s">
+      <c r="S37" t="s">
         <v>690</v>
       </c>
-      <c r="T37" s="5" t="s">
+      <c r="T37" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -4373,14 +4372,14 @@
       <c r="R38" t="s">
         <v>625</v>
       </c>
-      <c r="S38" s="5" t="s">
+      <c r="S38" t="s">
         <v>694</v>
       </c>
-      <c r="T38" s="5" t="s">
+      <c r="T38" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>0</v>
       </c>
@@ -4420,14 +4419,14 @@
       <c r="R39" t="s">
         <v>604</v>
       </c>
-      <c r="S39" s="5" t="s">
+      <c r="S39" t="s">
         <v>690</v>
       </c>
-      <c r="T39" s="5" t="s">
+      <c r="T39" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4470,14 +4469,14 @@
       <c r="R40" t="s">
         <v>604</v>
       </c>
-      <c r="S40" s="5" t="s">
+      <c r="S40" t="s">
         <v>702</v>
       </c>
-      <c r="T40" s="5" t="s">
+      <c r="T40" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -4520,14 +4519,14 @@
       <c r="R41" t="s">
         <v>626</v>
       </c>
-      <c r="S41" s="5" t="s">
+      <c r="S41" t="s">
         <v>686</v>
       </c>
-      <c r="T41" s="5" t="s">
+      <c r="T41" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>0</v>
       </c>
@@ -4570,14 +4569,14 @@
       <c r="R42" t="s">
         <v>627</v>
       </c>
-      <c r="S42" s="5" t="s">
+      <c r="S42" t="s">
         <v>688</v>
       </c>
-      <c r="T42" s="5" t="s">
+      <c r="T42" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>0</v>
       </c>
@@ -4620,14 +4619,14 @@
       <c r="R43" t="s">
         <v>628</v>
       </c>
-      <c r="S43" s="5" t="s">
+      <c r="S43" t="s">
         <v>694</v>
       </c>
-      <c r="T43" s="5" t="s">
+      <c r="T43" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -4667,14 +4666,14 @@
       <c r="R44" t="s">
         <v>629</v>
       </c>
-      <c r="S44" s="5" t="s">
+      <c r="S44" t="s">
         <v>700</v>
       </c>
-      <c r="T44" s="5" t="s">
+      <c r="T44" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>0</v>
       </c>
@@ -4717,14 +4716,14 @@
       <c r="R45" t="s">
         <v>630</v>
       </c>
-      <c r="S45" s="5" t="s">
+      <c r="S45" t="s">
         <v>702</v>
       </c>
-      <c r="T45" s="5" t="s">
+      <c r="T45" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -4767,14 +4766,14 @@
       <c r="R46" t="s">
         <v>631</v>
       </c>
-      <c r="S46" s="5" t="s">
+      <c r="S46" t="s">
         <v>698</v>
       </c>
-      <c r="T46" s="5" t="s">
+      <c r="T46" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>0</v>
       </c>
@@ -4817,14 +4816,14 @@
       <c r="R47" t="s">
         <v>632</v>
       </c>
-      <c r="S47" s="5" t="s">
+      <c r="S47" t="s">
         <v>696</v>
       </c>
-      <c r="T47" s="5" t="s">
+      <c r="T47" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>0</v>
       </c>
@@ -4867,14 +4866,14 @@
       <c r="R48" t="s">
         <v>633</v>
       </c>
-      <c r="S48" s="5" t="s">
+      <c r="S48" t="s">
         <v>704</v>
       </c>
-      <c r="T48" s="5" t="s">
+      <c r="T48" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>0</v>
       </c>
@@ -4917,14 +4916,14 @@
       <c r="R49" t="s">
         <v>634</v>
       </c>
-      <c r="S49" s="5" t="s">
+      <c r="S49" t="s">
         <v>704</v>
       </c>
-      <c r="T49" s="5" t="s">
+      <c r="T49" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>0</v>
       </c>
@@ -4964,14 +4963,14 @@
       <c r="R50" t="s">
         <v>635</v>
       </c>
-      <c r="S50" s="5" t="s">
+      <c r="S50" t="s">
         <v>704</v>
       </c>
-      <c r="T50" s="5" t="s">
+      <c r="T50" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>0</v>
       </c>
@@ -5011,14 +5010,14 @@
       <c r="R51" t="s">
         <v>636</v>
       </c>
-      <c r="S51" s="5" t="s">
+      <c r="S51" t="s">
         <v>694</v>
       </c>
-      <c r="T51" s="5" t="s">
+      <c r="T51" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -5061,14 +5060,14 @@
       <c r="R52" t="s">
         <v>637</v>
       </c>
-      <c r="S52" s="5" t="s">
+      <c r="S52" t="s">
         <v>692</v>
       </c>
-      <c r="T52" s="5" t="s">
+      <c r="T52" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>0</v>
       </c>
@@ -5108,14 +5107,14 @@
       <c r="R53" t="s">
         <v>638</v>
       </c>
-      <c r="S53" s="5" t="s">
+      <c r="S53" t="s">
         <v>694</v>
       </c>
-      <c r="T53" s="5" t="s">
+      <c r="T53" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>0</v>
       </c>
@@ -5155,14 +5154,14 @@
       <c r="R54" t="s">
         <v>639</v>
       </c>
-      <c r="S54" s="5" t="s">
+      <c r="S54" t="s">
         <v>686</v>
       </c>
-      <c r="T54" s="5" t="s">
+      <c r="T54" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>0</v>
       </c>
@@ -5202,14 +5201,14 @@
       <c r="R55" t="s">
         <v>640</v>
       </c>
-      <c r="S55" s="5" t="s">
+      <c r="S55" t="s">
         <v>692</v>
       </c>
-      <c r="T55" s="5" t="s">
+      <c r="T55" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>0</v>
       </c>
@@ -5249,14 +5248,14 @@
       <c r="R56" t="s">
         <v>641</v>
       </c>
-      <c r="S56" s="5" t="s">
+      <c r="S56" t="s">
         <v>704</v>
       </c>
-      <c r="T56" s="5" t="s">
+      <c r="T56" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>0</v>
       </c>
@@ -5296,14 +5295,14 @@
       <c r="R57" t="s">
         <v>642</v>
       </c>
-      <c r="S57" s="5" t="s">
+      <c r="S57" t="s">
         <v>698</v>
       </c>
-      <c r="T57" s="5" t="s">
+      <c r="T57" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>0</v>
       </c>
@@ -5343,14 +5342,14 @@
       <c r="R58" t="s">
         <v>643</v>
       </c>
-      <c r="S58" s="5" t="s">
+      <c r="S58" t="s">
         <v>690</v>
       </c>
-      <c r="T58" s="5" t="s">
+      <c r="T58" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>0</v>
       </c>
@@ -5393,14 +5392,14 @@
       <c r="R59" t="s">
         <v>644</v>
       </c>
-      <c r="S59" s="5" t="s">
+      <c r="S59" t="s">
         <v>704</v>
       </c>
-      <c r="T59" s="5" t="s">
+      <c r="T59" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -5443,14 +5442,14 @@
       <c r="R60" t="s">
         <v>645</v>
       </c>
-      <c r="S60" s="5" t="s">
+      <c r="S60" t="s">
         <v>702</v>
       </c>
-      <c r="T60" s="5" t="s">
+      <c r="T60" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
         <v>0</v>
       </c>
@@ -5490,14 +5489,14 @@
       <c r="R61" t="s">
         <v>646</v>
       </c>
-      <c r="S61" s="5" t="s">
+      <c r="S61" t="s">
         <v>686</v>
       </c>
-      <c r="T61" s="5" t="s">
+      <c r="T61" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
         <v>0</v>
       </c>
@@ -5537,14 +5536,14 @@
       <c r="R62" t="s">
         <v>647</v>
       </c>
-      <c r="S62" s="5" t="s">
+      <c r="S62" t="s">
         <v>686</v>
       </c>
-      <c r="T62" s="5" t="s">
+      <c r="T62" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -5587,14 +5586,14 @@
       <c r="R63" t="s">
         <v>648</v>
       </c>
-      <c r="S63" s="5" t="s">
+      <c r="S63" t="s">
         <v>696</v>
       </c>
-      <c r="T63" s="5" t="s">
+      <c r="T63" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
         <v>0</v>
       </c>
@@ -5637,14 +5636,14 @@
       <c r="R64" t="s">
         <v>649</v>
       </c>
-      <c r="S64" s="5" t="s">
+      <c r="S64" t="s">
         <v>700</v>
       </c>
-      <c r="T64" s="5" t="s">
+      <c r="T64" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -5687,14 +5686,14 @@
       <c r="R65" t="s">
         <v>650</v>
       </c>
-      <c r="S65" s="5" t="s">
+      <c r="S65" t="s">
         <v>696</v>
       </c>
-      <c r="T65" s="5" t="s">
+      <c r="T65" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
         <v>0</v>
       </c>
@@ -5731,14 +5730,14 @@
       <c r="R66" t="s">
         <v>651</v>
       </c>
-      <c r="S66" s="5" t="s">
+      <c r="S66" t="s">
         <v>690</v>
       </c>
-      <c r="T66" s="5" t="s">
+      <c r="T66" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -5781,14 +5780,14 @@
       <c r="R67" t="s">
         <v>652</v>
       </c>
-      <c r="S67" s="5" t="s">
+      <c r="S67" t="s">
         <v>688</v>
       </c>
-      <c r="T67" s="5" t="s">
+      <c r="T67" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
         <v>0</v>
       </c>
@@ -5828,14 +5827,14 @@
       <c r="R68" t="s">
         <v>653</v>
       </c>
-      <c r="S68" s="5" t="s">
+      <c r="S68" t="s">
         <v>700</v>
       </c>
-      <c r="T68" s="5" t="s">
+      <c r="T68" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
         <v>0</v>
       </c>
@@ -5878,14 +5877,14 @@
       <c r="R69" t="s">
         <v>654</v>
       </c>
-      <c r="S69" s="5" t="s">
+      <c r="S69" t="s">
         <v>704</v>
       </c>
-      <c r="T69" s="5" t="s">
+      <c r="T69" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>0</v>
       </c>
@@ -5925,14 +5924,14 @@
       <c r="R70" t="s">
         <v>655</v>
       </c>
-      <c r="S70" s="5" t="s">
+      <c r="S70" t="s">
         <v>704</v>
       </c>
-      <c r="T70" s="5" t="s">
+      <c r="T70" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
         <v>0</v>
       </c>
@@ -5975,14 +5974,14 @@
       <c r="R71" t="s">
         <v>656</v>
       </c>
-      <c r="S71" s="5" t="s">
+      <c r="S71" t="s">
         <v>704</v>
       </c>
-      <c r="T71" s="5" t="s">
+      <c r="T71" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
         <v>0</v>
       </c>
@@ -6025,14 +6024,14 @@
       <c r="R72" t="s">
         <v>657</v>
       </c>
-      <c r="S72" s="5" t="s">
+      <c r="S72" t="s">
         <v>692</v>
       </c>
-      <c r="T72" s="5" t="s">
+      <c r="T72" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
         <v>0</v>
       </c>
@@ -6075,14 +6074,14 @@
       <c r="R73" t="s">
         <v>658</v>
       </c>
-      <c r="S73" s="5" t="s">
+      <c r="S73" t="s">
         <v>700</v>
       </c>
-      <c r="T73" s="5" t="s">
+      <c r="T73" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -6122,14 +6121,14 @@
       <c r="R74" t="s">
         <v>659</v>
       </c>
-      <c r="S74" s="5" t="s">
+      <c r="S74" t="s">
         <v>696</v>
       </c>
-      <c r="T74" s="5" t="s">
+      <c r="T74" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -6166,14 +6165,14 @@
       <c r="R75" t="s">
         <v>660</v>
       </c>
-      <c r="S75" s="5" t="s">
+      <c r="S75" t="s">
         <v>694</v>
       </c>
-      <c r="T75" s="5" t="s">
+      <c r="T75" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
         <v>0</v>
       </c>
@@ -6213,14 +6212,14 @@
       <c r="R76" t="s">
         <v>661</v>
       </c>
-      <c r="S76" s="5" t="s">
+      <c r="S76" t="s">
         <v>688</v>
       </c>
-      <c r="T76" s="5" t="s">
+      <c r="T76" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
         <v>0</v>
       </c>
@@ -6254,14 +6253,14 @@
       <c r="R77" t="s">
         <v>662</v>
       </c>
-      <c r="S77" s="5" t="s">
+      <c r="S77" t="s">
         <v>696</v>
       </c>
-      <c r="T77" s="5" t="s">
+      <c r="T77" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
         <v>0</v>
       </c>
@@ -6301,14 +6300,14 @@
       <c r="R78" t="s">
         <v>663</v>
       </c>
-      <c r="S78" s="5" t="s">
+      <c r="S78" t="s">
         <v>700</v>
       </c>
-      <c r="T78" s="5" t="s">
+      <c r="T78" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
         <v>358</v>
       </c>
@@ -6348,14 +6347,14 @@
       <c r="R79" t="s">
         <v>664</v>
       </c>
-      <c r="S79" s="5" t="s">
+      <c r="S79" t="s">
         <v>696</v>
       </c>
-      <c r="T79" s="5" t="s">
+      <c r="T79" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
         <v>358</v>
       </c>
@@ -6398,14 +6397,14 @@
       <c r="R80" t="s">
         <v>665</v>
       </c>
-      <c r="S80" s="5" t="s">
+      <c r="S80" t="s">
         <v>696</v>
       </c>
-      <c r="T80" s="5" t="s">
+      <c r="T80" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
         <v>358</v>
       </c>
@@ -6448,14 +6447,14 @@
       <c r="R81" t="s">
         <v>666</v>
       </c>
-      <c r="S81" s="5" t="s">
+      <c r="S81" t="s">
         <v>702</v>
       </c>
-      <c r="T81" s="5" t="s">
+      <c r="T81" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
         <v>358</v>
       </c>
@@ -6498,14 +6497,14 @@
       <c r="R82" t="s">
         <v>667</v>
       </c>
-      <c r="S82" s="5" t="s">
+      <c r="S82" t="s">
         <v>696</v>
       </c>
-      <c r="T82" s="5" t="s">
+      <c r="T82" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
         <v>0</v>
       </c>
@@ -6548,14 +6547,14 @@
       <c r="R83" t="s">
         <v>668</v>
       </c>
-      <c r="S83" s="5" t="s">
+      <c r="S83" t="s">
         <v>686</v>
       </c>
-      <c r="T83" s="5" t="s">
+      <c r="T83" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
         <v>0</v>
       </c>
@@ -6598,14 +6597,14 @@
       <c r="R84" t="s">
         <v>669</v>
       </c>
-      <c r="S84" s="5" t="s">
+      <c r="S84" t="s">
         <v>696</v>
       </c>
-      <c r="T84" s="5" t="s">
+      <c r="T84" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -6648,14 +6647,14 @@
       <c r="R85" t="s">
         <v>604</v>
       </c>
-      <c r="S85" s="5" t="s">
+      <c r="S85" t="s">
         <v>698</v>
       </c>
-      <c r="T85" s="5" t="s">
+      <c r="T85" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -6698,14 +6697,14 @@
       <c r="R86" t="s">
         <v>670</v>
       </c>
-      <c r="S86" s="5" t="s">
+      <c r="S86" t="s">
         <v>688</v>
       </c>
-      <c r="T86" s="5" t="s">
+      <c r="T86" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
         <v>0</v>
       </c>
@@ -6748,14 +6747,14 @@
       <c r="R87" t="s">
         <v>671</v>
       </c>
-      <c r="S87" s="5" t="s">
+      <c r="S87" t="s">
         <v>688</v>
       </c>
-      <c r="T87" s="5" t="s">
+      <c r="T87" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -6798,14 +6797,14 @@
       <c r="R88" t="s">
         <v>672</v>
       </c>
-      <c r="S88" s="5" t="s">
+      <c r="S88" t="s">
         <v>692</v>
       </c>
-      <c r="T88" s="5" t="s">
+      <c r="T88" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A89" t="s">
         <v>0</v>
       </c>
@@ -6845,14 +6844,14 @@
       <c r="R89" t="s">
         <v>604</v>
       </c>
-      <c r="S89" s="5" t="s">
+      <c r="S89" t="s">
         <v>688</v>
       </c>
-      <c r="T89" s="5" t="s">
+      <c r="T89" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A90" t="s">
         <v>0</v>
       </c>
@@ -6889,14 +6888,14 @@
       <c r="R90" t="s">
         <v>673</v>
       </c>
-      <c r="S90" s="5" t="s">
+      <c r="S90" t="s">
         <v>700</v>
       </c>
-      <c r="T90" s="5" t="s">
+      <c r="T90" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A91" t="s">
         <v>0</v>
       </c>
@@ -6939,14 +6938,14 @@
       <c r="R91" t="s">
         <v>674</v>
       </c>
-      <c r="S91" s="5" t="s">
+      <c r="S91" t="s">
         <v>702</v>
       </c>
-      <c r="T91" s="5" t="s">
+      <c r="T91" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A92" t="s">
         <v>0</v>
       </c>
@@ -6983,14 +6982,14 @@
       <c r="R92" t="s">
         <v>675</v>
       </c>
-      <c r="S92" s="5" t="s">
+      <c r="S92" t="s">
         <v>688</v>
       </c>
-      <c r="T92" s="5" t="s">
+      <c r="T92" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A93" t="s">
         <v>0</v>
       </c>
@@ -7033,14 +7032,14 @@
       <c r="R93" t="s">
         <v>676</v>
       </c>
-      <c r="S93" s="5" t="s">
+      <c r="S93" t="s">
         <v>704</v>
       </c>
-      <c r="T93" s="5" t="s">
+      <c r="T93" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A94" t="s">
         <v>0</v>
       </c>
@@ -7083,14 +7082,14 @@
       <c r="R94" t="s">
         <v>677</v>
       </c>
-      <c r="S94" s="5" t="s">
+      <c r="S94" t="s">
         <v>692</v>
       </c>
-      <c r="T94" s="5" t="s">
+      <c r="T94" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A95" t="s">
         <v>0</v>
       </c>
@@ -7133,14 +7132,14 @@
       <c r="R95" t="s">
         <v>678</v>
       </c>
-      <c r="S95" s="5" t="s">
+      <c r="S95" t="s">
         <v>692</v>
       </c>
-      <c r="T95" s="5" t="s">
+      <c r="T95" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A96" t="s">
         <v>0</v>
       </c>
@@ -7183,14 +7182,14 @@
       <c r="R96" t="s">
         <v>679</v>
       </c>
-      <c r="S96" s="5" t="s">
+      <c r="S96" t="s">
         <v>700</v>
       </c>
-      <c r="T96" s="5" t="s">
+      <c r="T96" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A97" t="s">
         <v>0</v>
       </c>
@@ -7230,14 +7229,14 @@
       <c r="R97" t="s">
         <v>680</v>
       </c>
-      <c r="S97" s="5" t="s">
+      <c r="S97" t="s">
         <v>700</v>
       </c>
-      <c r="T97" s="5" t="s">
+      <c r="T97" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A98" t="s">
         <v>0</v>
       </c>
@@ -7277,14 +7276,14 @@
       <c r="R98" t="s">
         <v>681</v>
       </c>
-      <c r="S98" s="5" t="s">
+      <c r="S98" t="s">
         <v>690</v>
       </c>
-      <c r="T98" s="5" t="s">
+      <c r="T98" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
         <v>0</v>
       </c>
@@ -7324,14 +7323,14 @@
       <c r="R99" t="s">
         <v>682</v>
       </c>
-      <c r="S99" s="5" t="s">
+      <c r="S99" t="s">
         <v>690</v>
       </c>
-      <c r="T99" s="5" t="s">
+      <c r="T99" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A100" t="s">
         <v>358</v>
       </c>
@@ -7371,10 +7370,10 @@
       <c r="R100" t="s">
         <v>683</v>
       </c>
-      <c r="S100" s="5" t="s">
+      <c r="S100" t="s">
         <v>704</v>
       </c>
-      <c r="T100" s="5" t="s">
+      <c r="T100" t="s">
         <v>705</v>
       </c>
     </row>
